--- a/опт и Краснодар/2025/03,25/25,03,25 ПОКОМ КИ Новороссийск/Заказ Новороссийск 25.,03,25 от Химича.xlsx
+++ b/опт и Краснодар/2025/03,25/25,03,25 ПОКОМ КИ Новороссийск/Заказ Новороссийск 25.,03,25 от Химича.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\25,03,25 ПОКОМ КИ Новороссийск\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2025\03,25\25,03,25 ПОКОМ КИ Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67606A52-E75E-491C-A867-7D97A07EB896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49019EAF-6C51-40E9-9A28-31796B541B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="129">
   <si>
     <t>Сосиски Ганноверские ТМ Стародворье амилюкс мгс вес СК</t>
   </si>
@@ -426,6 +426,9 @@
   <si>
     <t>Вареные колбасы «Молочная Традиционная» ф/в 0,4 п/а ТМ «Стародворье»</t>
   </si>
+  <si>
+    <t>нет</t>
+  </si>
 </sst>
 </file>
 
@@ -44239,7 +44242,7 @@
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46276,7 +46279,9 @@
       <c r="B67" t="s">
         <v>88</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="I67" s="8">
         <v>70</v>
       </c>
@@ -46310,6 +46315,9 @@
       <c r="B68" t="s">
         <v>91</v>
       </c>
+      <c r="F68" t="s">
+        <v>98</v>
+      </c>
       <c r="I68" s="8">
         <v>100</v>
       </c>
@@ -46342,6 +46350,9 @@
       </c>
       <c r="B69" t="s">
         <v>89</v>
+      </c>
+      <c r="F69" t="s">
+        <v>128</v>
       </c>
       <c r="I69" s="8">
         <v>50</v>
@@ -46368,6 +46379,9 @@
       <c r="B70" t="s">
         <v>90</v>
       </c>
+      <c r="F70" t="s">
+        <v>102</v>
+      </c>
       <c r="I70" s="8">
         <v>50</v>
       </c>
@@ -46401,6 +46415,9 @@
       <c r="B71" t="s">
         <v>92</v>
       </c>
+      <c r="F71" t="s">
+        <v>108</v>
+      </c>
       <c r="I71" s="8">
         <v>100</v>
       </c>
@@ -46434,6 +46451,9 @@
       <c r="B72" t="s">
         <v>92</v>
       </c>
+      <c r="F72" t="s">
+        <v>110</v>
+      </c>
       <c r="I72" s="8">
         <v>100</v>
       </c>
@@ -46467,6 +46487,9 @@
       <c r="B73" t="s">
         <v>92</v>
       </c>
+      <c r="F73" t="s">
+        <v>112</v>
+      </c>
       <c r="I73" s="8">
         <v>100</v>
       </c>
@@ -46500,6 +46523,9 @@
       <c r="B74" t="s">
         <v>93</v>
       </c>
+      <c r="F74" t="s">
+        <v>117</v>
+      </c>
       <c r="I74" s="8">
         <v>50</v>
       </c>
@@ -46532,6 +46558,9 @@
       </c>
       <c r="B75" t="s">
         <v>94</v>
+      </c>
+      <c r="F75" t="s">
+        <v>120</v>
       </c>
       <c r="I75" s="8">
         <v>50</v>
